--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -97,7 +97,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -165,12 +165,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4A3928"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -324,7 +318,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,10 +339,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,10 +351,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,17 +372,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,10 +392,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,52 +499,52 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -578,349 +560,349 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="n">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="12" t="n">
         <f aca="true">OFFSET(A5,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18" t="n">
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
         <v>2</v>
       </c>
-      <c r="P5" s="19" t="n">
+      <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="12" t="n">
         <f aca="true">OFFSET(A6,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18" t="n">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="19" t="n">
+      <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
         <v>0.5</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
         <f aca="true">OFFSET(A7,-1,0,1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18" t="n">
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
         <f aca="true">OFFSET(A8,-1,0,1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18" t="n">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
         <v>2</v>
       </c>
-      <c r="P8" s="19" t="n">
+      <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
         <f aca="true">OFFSET(A9,-1,0,1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18" t="n">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
         <v>1</v>
       </c>
-      <c r="P9" s="19" t="n">
+      <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
         <v>0.5</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
         <f aca="true">OFFSET(A10,-1,0,1,1)+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18" t="n">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="19" t="n">
+      <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
         <v>0.5</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <f aca="true">OFFSET(A11,-1,0,1,1)+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="n">
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
         <v>2</v>
       </c>
-      <c r="P11" s="19" t="n">
+      <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -928,58 +910,58 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+    <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
         <v>4</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="24" t="n">
         <f aca="false">COUNTA(D5:D12)</f>
         <v>7</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="24" t="n">
         <f aca="false">COUNTA(J5:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="24" t="n">
         <f aca="false">COUNTA(K5:K12)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="n">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="n">
         <f aca="false">COUNTA(M5:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="27" t="n">
+      <c r="N13" s="24" t="n">
         <f aca="false">COUNTA(N5:N12)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -987,7 +969,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1011,7 +993,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1080,45 +1062,45 @@
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1134,355 +1116,355 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="n">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="12" t="n">
         <f aca="true">OFFSET(A5,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18" t="n">
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
         <v>2</v>
       </c>
-      <c r="P5" s="19" t="n">
+      <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="12" t="n">
         <f aca="true">OFFSET(A6,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18" t="n">
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
         <v>2</v>
       </c>
-      <c r="P6" s="19" t="n">
+      <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
         <f aca="true">OFFSET(A7,-1,0,1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18" t="n">
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
         <f aca="true">OFFSET(A8,-1,0,1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18" t="n">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
         <v>2</v>
       </c>
-      <c r="P8" s="19" t="n">
+      <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
         <f aca="true">OFFSET(A9,-1,0,1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18" t="n">
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
         <v>2</v>
       </c>
-      <c r="P9" s="19" t="n">
+      <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
         <f aca="true">OFFSET(A10,-1,0,1,1)+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18" t="n">
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
         <v>2</v>
       </c>
-      <c r="P10" s="19" t="n">
+      <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <f aca="true">OFFSET(A11,-1,0,1,1)+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="n">
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
         <v>2</v>
       </c>
-      <c r="P11" s="19" t="n">
+      <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
         <v>1</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1490,58 +1472,58 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+    <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
         <v>7</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="24" t="n">
         <f aca="false">COUNTA(D5:D12)</f>
         <v>7</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="24" t="n">
         <f aca="false">COUNTA(J5:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="24" t="n">
         <f aca="false">COUNTA(K5:K12)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="n">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="n">
         <f aca="false">COUNTA(M5:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="27" t="n">
+      <c r="N13" s="24" t="n">
         <f aca="false">COUNTA(N5:N12)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1549,7 +1531,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1573,7 +1555,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1635,52 +1617,52 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1696,323 +1678,335 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="n">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="12" t="n">
         <f aca="true">OFFSET(A5,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18" t="n">
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="12" t="n">
         <f aca="true">OFFSET(A6,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18" t="n">
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
         <f aca="true">OFFSET(A7,-1,0,1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18" t="n">
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
         <f aca="true">OFFSET(A8,-1,0,1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18" t="n">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
         <f aca="true">OFFSET(A9,-1,0,1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18" t="n">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="19" t="n">
+      <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
         <f aca="true">OFFSET(A10,-1,0,1,1)+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18" t="n">
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <f aca="true">OFFSET(A11,-1,0,1,1)+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="n">
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2020,58 +2014,58 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+    <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="24" t="n">
         <f aca="false">COUNTA(D5:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="24" t="n">
         <f aca="false">COUNTA(J5:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="24" t="n">
         <f aca="false">COUNTA(K5:K12)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="n">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="n">
         <f aca="false">COUNTA(M5:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="27" t="n">
+      <c r="N13" s="24" t="n">
         <f aca="false">COUNTA(N5:N12)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2079,7 +2073,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2103,7 +2097,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="E11 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1055,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1134,9 @@
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1166,7 +1168,9 @@
       <c r="D4" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="n">
+        <v>22</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1199,7 +1203,9 @@
       <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1211,7 +1217,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1238,7 +1244,9 @@
       <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -1250,7 +1258,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1277,7 +1285,9 @@
       <c r="D7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1289,7 +1299,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1314,7 +1324,9 @@
       <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1326,7 +1338,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1367,7 +1379,7 @@
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1388,7 +1400,9 @@
       <c r="D10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1400,7 +1414,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1425,7 +1439,9 @@
       <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1437,7 +1453,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1487,7 +1503,7 @@
       </c>
       <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
@@ -1617,8 +1633,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="E11 D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -372,7 +372,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -392,7 +392,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -500,7 +500,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="E11 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,7 +1363,9 @@
       <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1375,11 +1377,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1503,7 +1505,7 @@
       </c>
       <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
@@ -1634,7 +1636,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="E11 D32"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -372,7 +375,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -392,7 +395,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -499,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,7 +581,9 @@
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -589,10 +594,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
@@ -610,7 +615,9 @@
       <c r="D4" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -635,15 +642,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -655,7 +664,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -674,13 +683,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -692,11 +703,11 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
@@ -711,15 +722,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -731,7 +744,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -748,15 +761,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -768,7 +783,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -785,13 +800,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -803,11 +820,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -820,13 +837,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -838,11 +857,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -855,15 +874,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -875,7 +896,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -913,7 +934,7 @@
     <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
@@ -925,7 +946,7 @@
       </c>
       <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
@@ -1024,8 +1045,12 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:N11" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:E11" type="list">
+      <formula1>TEAM!checkbox</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 F5:N11" type="list">
       <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1055,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1075,7 +1100,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
@@ -1137,7 +1162,9 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -1147,10 +1174,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
@@ -1171,7 +1198,9 @@
       <c r="E4" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="n">
+        <v>29</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1195,18 +1224,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1217,7 +1248,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1236,18 +1267,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1258,7 +1291,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1277,18 +1310,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1299,7 +1334,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1316,18 +1351,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1338,7 +1375,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1355,18 +1392,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1377,7 +1416,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
@@ -1394,18 +1433,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1416,7 +1457,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1433,18 +1474,20 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1455,7 +1498,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1493,7 +1536,7 @@
     <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
@@ -1509,7 +1552,7 @@
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
@@ -1655,7 +1698,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
@@ -1723,10 +1766,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
@@ -1767,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1804,10 +1847,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1841,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1876,10 +1919,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1911,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1944,10 +1987,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1979,10 +2022,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2035,7 +2078,7 @@
     <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -321,7 +321,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,7 +375,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -395,7 +395,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -420,6 +420,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -502,7 +518,7 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1046,10 +1062,6 @@
     <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:E11" type="list">
-      <formula1>TEAM!checkbox</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 F5:N11" type="list">
       <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
@@ -1060,6 +1072,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C4:N4" type="list">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:E11" type="list">
+      <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1678,14 +1694,14 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="26.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7"/>
@@ -1724,7 +1740,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1754,7 +1770,9 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1784,7 +1802,9 @@
       <c r="C4" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1809,13 +1829,15 @@
         <f aca="true">OFFSET(A5,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1828,7 +1850,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1846,13 +1868,15 @@
         <f aca="true">OFFSET(A6,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1865,7 +1889,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1883,13 +1907,15 @@
         <f aca="true">OFFSET(A7,-1,0,1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1902,7 +1928,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1918,13 +1944,15 @@
         <f aca="true">OFFSET(A8,-1,0,1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1937,7 +1965,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1953,11 +1981,13 @@
         <f aca="true">OFFSET(A9,-1,0,1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1970,11 +2000,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1986,7 +2016,7 @@
         <f aca="true">OFFSET(A10,-1,0,1,1)+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2009,7 +2039,7 @@
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -2021,13 +2051,15 @@
         <f aca="true">OFFSET(A11,-1,0,1,1)+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2040,7 +2072,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -2053,7 +2085,7 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -2086,7 +2118,7 @@
       </c>
       <c r="D13" s="24" t="n">
         <f aca="false">COUNTA(D5:D12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
@@ -2136,7 +2168,7 @@
     </row>
     <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2160,7 +2192,7 @@
     </row>
     <row r="15" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -321,7 +321,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,7 +375,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -395,7 +395,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -428,10 +428,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -519,7 +515,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="G6 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1096,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,7 +1177,9 @@
       <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1217,7 +1215,9 @@
       <c r="F4" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11" t="n">
+        <v>8</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1254,7 +1254,9 @@
       <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1264,7 +1266,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1297,7 +1299,9 @@
       <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -1307,7 +1311,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1340,7 +1344,9 @@
       <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1350,7 +1356,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1381,7 +1387,9 @@
       <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -1391,7 +1399,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1422,7 +1430,9 @@
       <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -1432,7 +1442,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
@@ -1463,7 +1473,9 @@
       <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1473,7 +1485,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1504,7 +1516,9 @@
       <c r="F11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1514,7 +1528,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1572,7 +1586,7 @@
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
@@ -1694,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="G6 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1829,7 +1843,7 @@
         <f aca="true">OFFSET(A5,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1868,7 +1882,7 @@
         <f aca="true">OFFSET(A6,-1,0,1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1907,7 +1921,7 @@
         <f aca="true">OFFSET(A7,-1,0,1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1944,7 +1958,7 @@
         <f aca="true">OFFSET(A8,-1,0,1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1981,7 +1995,7 @@
         <f aca="true">OFFSET(A9,-1,0,1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14"/>
@@ -2016,7 +2030,7 @@
         <f aca="true">OFFSET(A10,-1,0,1,1)+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2051,7 +2065,7 @@
         <f aca="true">OFFSET(A11,-1,0,1,1)+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2085,7 +2099,7 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -514,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="G6 B5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,7 +596,9 @@
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -630,7 +632,9 @@
       <c r="E4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="n">
+        <v>11</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -665,7 +669,9 @@
       <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -676,7 +682,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -704,7 +710,9 @@
       <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -715,11 +723,11 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
@@ -745,7 +753,9 @@
       <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -756,7 +766,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -784,7 +794,9 @@
       <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -795,7 +807,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -821,7 +833,9 @@
       <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -832,11 +846,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -858,7 +872,9 @@
       <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -869,11 +885,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -897,7 +913,9 @@
       <c r="E11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -908,7 +926,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -962,7 +980,7 @@
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
@@ -1058,7 +1076,7 @@
     <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 F5:N11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 G5:N11" type="list">
       <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1070,7 +1088,7 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:E11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:F11" type="list">
       <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1092,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="F11 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1709,7 +1727,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="G6 D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="F11 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -514,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="H6 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1077,7 +1077,7 @@
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 G5:N11" type="list">
-      <formula1>TEAM!checkbox</formula1>
+      <formula1>checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3:N3" type="list">
@@ -1089,7 +1089,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:F11" type="list">
-      <formula1>TEAM!checkbox</formula1>
+      <formula1>checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1110,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="F11 G6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1198,7 +1198,9 @@
       <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1236,7 +1238,9 @@
       <c r="G4" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11" t="n">
+        <v>13</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1275,7 +1279,9 @@
       <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -1284,7 +1290,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1320,7 +1326,9 @@
       <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -1329,7 +1337,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1365,7 +1373,9 @@
       <c r="G7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -1374,7 +1384,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1408,7 +1418,9 @@
       <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -1417,7 +1429,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1451,7 +1463,9 @@
       <c r="G9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -1460,7 +1474,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
@@ -1494,7 +1508,9 @@
       <c r="G10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -1503,7 +1519,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1537,7 +1553,9 @@
       <c r="G11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1546,7 +1564,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1608,7 +1626,7 @@
       </c>
       <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
@@ -1697,7 +1715,7 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:N11" type="list">
-      <formula1>TEAM!checkbox</formula1>
+      <formula1>checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3:N3" type="list">
@@ -1727,7 +1745,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="F11 D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="H6 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">Team Meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
   </si>
   <si>
     <t xml:space="preserve">TA Meetings</t>
@@ -515,7 +518,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="H6 F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F10 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,10 +1079,6 @@
     <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 G5:N11" type="list">
-      <formula1>checkbox</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3:N3" type="list">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
       <formula2>0</formula2>
@@ -1088,8 +1087,12 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 G5:N11" type="list">
+      <formula1>SPONSOR!checkbox</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:F11" type="list">
-      <formula1>checkbox</formula1>
+      <formula1>SPONSOR!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1110,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="2" sqref="F10 F11 J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1201,8 +1204,12 @@
       <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -1241,8 +1248,12 @@
       <c r="H4" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -1282,7 +1293,9 @@
       <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -1290,11 +1303,11 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
@@ -1329,7 +1342,9 @@
       <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1337,11 +1352,11 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
@@ -1376,7 +1391,9 @@
       <c r="H7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -1384,11 +1401,11 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
@@ -1421,7 +1438,9 @@
       <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -1429,11 +1448,11 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1478,7 +1497,7 @@
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1511,7 +1530,9 @@
       <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -1519,11 +1540,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -1556,7 +1577,9 @@
       <c r="H11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1564,11 +1587,11 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
@@ -1630,7 +1653,7 @@
       </c>
       <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" s="24" t="n">
         <f aca="false">COUNTA(J5:J12)</f>
@@ -1714,16 +1737,16 @@
     <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:N11" type="list">
-      <formula1>checkbox</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3:N3" type="list">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C4:N4" type="list">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:N11" type="list">
+      <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1744,8 +1767,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="H6 D10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F10 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1764,7 +1787,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
@@ -1823,8 +1846,12 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -1855,8 +1882,12 @@
       <c r="D4" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1888,7 +1919,9 @@
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1900,11 +1933,11 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
@@ -1927,8 +1960,12 @@
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1939,7 +1976,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1966,8 +2003,12 @@
       <c r="D7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1978,7 +2019,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -2003,8 +2044,12 @@
       <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -2015,7 +2060,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -2038,7 +2083,9 @@
       <c r="D9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -2050,7 +2097,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
@@ -2073,8 +2120,12 @@
         <v>7</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2085,11 +2136,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -2110,8 +2161,12 @@
       <c r="D11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -2122,7 +2177,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -2172,11 +2227,11 @@
       </c>
       <c r="E13" s="24" t="n">
         <f aca="false">COUNTA(E5:E12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
@@ -2272,16 +2327,16 @@
     <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:N11" type="list">
-      <formula1>TEAM!checkbox</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3:N3" type="list">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C4:N4" type="list">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:N11" type="list">
+      <formula1>TEAM!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -518,7 +518,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F10 F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F5 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="2" sqref="F10 F11 J4"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="F5 J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1768,7 +1768,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F10 F11"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1922,7 +1922,9 @@
       <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1933,11 +1935,11 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
@@ -2231,7 +2233,7 @@
       </c>
       <c r="F13" s="24" t="n">
         <f aca="false">COUNTA(F5:F12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -518,7 +518,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F5 F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="J5:J11 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1113,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="F5 J4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1296,18 +1296,20 @@
       <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
@@ -1345,18 +1347,20 @@
       <c r="I6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
@@ -1394,18 +1398,20 @@
       <c r="I7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
@@ -1441,18 +1447,20 @@
       <c r="I8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -1533,18 +1541,20 @@
       <c r="I10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -1580,18 +1590,20 @@
       <c r="I11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
@@ -1657,7 +1669,7 @@
       </c>
       <c r="J13" s="24" t="n">
         <f aca="false">COUNTA(J5:J12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="24" t="n">
         <f aca="false">COUNTA(K5:K12)</f>
@@ -1767,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="J5:J11 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -518,7 +518,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="J5:J11 F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:J11"/>
+      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,7 +1210,9 @@
       <c r="J3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -1254,7 +1256,9 @@
       <c r="J4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1299,13 +1303,15 @@
       <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1350,13 +1356,15 @@
       <c r="J6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1401,13 +1409,15 @@
       <c r="J7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1450,13 +1460,15 @@
       <c r="J8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1495,17 +1507,19 @@
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1544,13 +1558,15 @@
       <c r="J10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1593,13 +1609,15 @@
       <c r="J11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1673,7 +1691,7 @@
       </c>
       <c r="K13" s="24" t="n">
         <f aca="false">COUNTA(K5:K12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="24" t="n">
@@ -1780,7 +1798,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="J5:J11 F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -85,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Team Meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov</t>
   </si>
   <si>
     <t xml:space="preserve">TA Meetings</t>
@@ -517,8 +517,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,7 +602,9 @@
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -611,10 +613,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
@@ -638,7 +640,9 @@
       <c r="F4" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11" t="n">
+        <v>8</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -661,21 +665,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -685,7 +691,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -704,19 +710,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -726,11 +734,11 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
@@ -745,21 +753,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -769,7 +779,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -786,21 +796,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -810,7 +822,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -827,19 +839,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -849,11 +863,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -866,19 +880,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -888,11 +904,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -905,21 +921,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -929,7 +947,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -967,7 +985,7 @@
     <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
@@ -987,7 +1005,7 @@
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
@@ -1087,11 +1105,11 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 G5:N11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 H5:N11" type="list">
       <formula1>SPONSOR!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:F11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:G11" type="list">
       <formula1>SPONSOR!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1113,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T6" activeCellId="1" sqref="G10 T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,7 +1151,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
@@ -1208,19 +1226,19 @@
         <v>3</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
@@ -1277,34 +1295,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1330,34 +1348,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1383,34 +1401,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -1434,34 +1452,34 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -1485,30 +1503,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -1532,34 +1550,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -1583,34 +1601,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -1655,7 +1673,7 @@
     <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>
@@ -1798,7 +1816,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="G10 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1880,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1891,10 +1909,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
@@ -1941,19 +1959,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1984,19 +2002,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -2027,19 +2045,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -2068,19 +2086,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2109,14 +2127,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2146,17 +2164,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -2185,19 +2203,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -2247,7 +2265,7 @@
     <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="24" t="n">
         <f aca="false">COUNTA(C5:C12)</f>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -517,8 +517,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="G11 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,7 +605,9 @@
       <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -643,7 +645,9 @@
       <c r="G4" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11" t="n">
+        <v>29</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -682,7 +686,9 @@
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -691,7 +697,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -725,7 +731,9 @@
       <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -734,11 +742,11 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
-        <v>0.8</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
@@ -770,7 +778,9 @@
       <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -779,7 +789,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -813,7 +823,9 @@
       <c r="G8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -822,7 +834,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -854,7 +866,9 @@
       <c r="G9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -863,11 +877,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.8</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -895,7 +909,9 @@
       <c r="G10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -904,11 +920,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.8</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -938,7 +954,9 @@
       <c r="G11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -947,7 +965,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1009,7 +1027,7 @@
       </c>
       <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
@@ -1105,11 +1123,11 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 H5:N11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D11 I5:N11" type="list">
       <formula1>SPONSOR!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:G11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:H11" type="list">
       <formula1>SPONSOR!checkbox</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1132,7 +1150,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="1" sqref="G10 T6"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="1" sqref="G11 L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1231,7 +1249,9 @@
       <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
@@ -1277,7 +1297,9 @@
       <c r="K4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="11" t="n">
+        <v>19</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="9"/>
@@ -1324,12 +1346,14 @@
       <c r="K5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1377,12 +1401,14 @@
       <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1430,12 +1456,14 @@
       <c r="K7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1481,12 +1509,14 @@
       <c r="K8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1528,16 +1558,18 @@
       <c r="K9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1579,12 +1611,14 @@
       <c r="K10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1630,12 +1664,14 @@
       <c r="K11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1815,8 +1851,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="G10 F5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1900,7 +1936,9 @@
       <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1936,7 +1974,9 @@
       <c r="F4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11" t="n">
+        <v>17</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1973,7 +2013,9 @@
       <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1983,7 +2025,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -2016,7 +2058,9 @@
       <c r="F6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -2026,7 +2070,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -2059,7 +2103,9 @@
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -2069,7 +2115,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -2100,7 +2146,9 @@
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -2110,7 +2158,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -2137,7 +2185,9 @@
         <v>8</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2147,11 +2197,11 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15" t="n">
         <f aca="false">COUNTA(C9:N9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -2190,7 +2240,7 @@
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -2217,7 +2267,9 @@
       <c r="F11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2227,7 +2279,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -2285,7 +2337,7 @@
       </c>
       <c r="G13" s="24" t="n">
         <f aca="false">COUNTA(G5:G12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>

--- a/Admin/attendance-sheet.xlsx
+++ b/Admin/attendance-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPONSOR" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="20">
   <si>
     <t xml:space="preserve">Sponsor Meetings</t>
   </si>
@@ -90,7 +90,13 @@
     <t xml:space="preserve">Team Meetings</t>
   </si>
   <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
+  <si>
     <t xml:space="preserve">TA Meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec </t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -178,6 +184,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A3928"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -324,7 +336,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,6 +443,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -518,7 +534,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="G11 H5"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="1" sqref="G11 L5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1252,7 +1268,9 @@
       <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
         <v>5</v>
@@ -1300,7 +1318,9 @@
       <c r="L4" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1349,11 +1369,13 @@
       <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -1404,11 +1426,13 @@
       <c r="L6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -1459,11 +1483,13 @@
       <c r="L7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -1512,11 +1538,13 @@
       <c r="L8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="15" t="n">
         <f aca="false">COUNTA(C8:N8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
@@ -1569,7 +1597,7 @@
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.8</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1614,11 +1642,13 @@
       <c r="L10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
@@ -1667,11 +1697,13 @@
       <c r="L11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -1750,7 +1782,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24" t="n">
         <f aca="false">COUNTA(M5:M12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="24" t="n">
         <f aca="false">COUNTA(N5:N12)</f>
@@ -1851,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,7 +1903,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
@@ -1939,7 +1971,9 @@
       <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1977,7 +2011,9 @@
       <c r="G4" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -2016,7 +2052,9 @@
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -2025,7 +2063,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15" t="n">
         <f aca="false">COUNTA(C5:N5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="16" t="n">
         <f aca="false">O5/COUNTA($C$4:$N$4)</f>
@@ -2061,7 +2099,9 @@
       <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -2070,7 +2110,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15" t="n">
         <f aca="false">COUNTA(C6:N6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" s="16" t="n">
         <f aca="false">O6/COUNTA($C$4:$N$4)</f>
@@ -2106,7 +2146,9 @@
       <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2115,7 +2157,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="n">
         <f aca="false">COUNTA(C7:N7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="16" t="n">
         <f aca="false">O7/COUNTA($C$4:$N$4)</f>
@@ -2162,7 +2204,7 @@
       </c>
       <c r="P8" s="16" t="n">
         <f aca="false">O8/COUNTA($C$4:$N$4)</f>
-        <v>1</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
@@ -2188,7 +2230,7 @@
       <c r="G9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2201,7 +2243,7 @@
       </c>
       <c r="P9" s="16" t="n">
         <f aca="false">O9/COUNTA($C$4:$N$4)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -2227,7 +2269,9 @@
         <v>8</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -2236,11 +2280,11 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15" t="n">
         <f aca="false">COUNTA(C10:N10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="16" t="n">
         <f aca="false">O10/COUNTA($C$4:$N$4)</f>
-        <v>0.6</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -2270,7 +2314,9 @@
       <c r="G11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -2279,7 +2325,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15" t="n">
         <f aca="false">COUNTA(C11:N11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="16" t="n">
         <f aca="false">O11/COUNTA($C$4:$N$4)</f>
@@ -2292,7 +2338,7 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -2341,7 +2387,7 @@
       </c>
       <c r="H13" s="24" t="n">
         <f aca="false">COUNTA(H5:H12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="24" t="n">
         <f aca="false">COUNTA(I5:I12)</f>
